--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Epics</t>
   </si>
@@ -66,16 +66,16 @@
     <t>Assigned Engineer</t>
   </si>
   <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
     <t>John</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Sarah</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +545,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -569,41 +569,9 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
